--- a/data/trans_bre/P1804-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Estudios-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1804-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34,98%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,24%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 6,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 4,48</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 84,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 93,13</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>57,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36,49%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 4,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 3,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24,77; 103,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 82,15</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>76,54%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,38%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 9,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 5,47</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 165,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 75,2</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,3; 5,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 3,25</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32,94; 88,04</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 60,21</t>
         </is>
       </c>
     </row>
@@ -818,10 +1017,10 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P1804-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>36,81%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,48</t>
+          <t>-0,42; 4,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 93,13</t>
+          <t>-5,61; 93,77</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>39,73%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,33</t>
+          <t>-0,15; 3,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 82,15</t>
+          <t>-2,31; 106,69</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>26,41%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,47</t>
+          <t>-1,24; 5,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 75,2</t>
+          <t>-11,11; 76,75</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>36,85%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,25</t>
+          <t>0,4; 3,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 60,21</t>
+          <t>7,29; 77,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1804-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Estudios-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,06</t>
+          <t>0,27; 6,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,42</t>
+          <t>-0,43; 4,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 84,8</t>
+          <t>2,51; 83,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 93,77</t>
+          <t>-6,2; 93,07</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,71</t>
+          <t>1,49; 4,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,64</t>
+          <t>-0,23; 3,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,77; 103,99</t>
+          <t>24,41; 103,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 106,69</t>
+          <t>-1,85; 113,72</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,33</t>
+          <t>1,27; 8,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,45</t>
+          <t>-0,88; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 165,31</t>
+          <t>13,46; 162,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 76,75</t>
+          <t>-8,6; 76,5</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,05</t>
+          <t>2,22; 4,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,6</t>
+          <t>0,42; 3,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,94; 88,04</t>
+          <t>31,85; 84,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 77,52</t>
+          <t>7,06; 77,24</t>
         </is>
       </c>
     </row>
